--- a/medicine/Psychotrope/Roussanne/Roussanne.xlsx
+++ b/medicine/Psychotrope/Roussanne/Roussanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La roussanne est un cépage blanc à jus blanc de la vallée du Rhône et du sud de la France.
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre en particulier dans l'encépagement de l'hermitage et du châteauneuf-du-pape blancs.
 En Ardèche, la Roussanne entre dans la composition du Saint-Péray blanc en assemblage avec la Marsanne.
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage a comme synonyme Barbin, Bergeron, Courtoisie, Fromental, Fromental Jaune, Fromenteal, Fromenteau, Greffon, Greffou, Martin Cot, Petite Rousette, Picotin Blanc, Plant de Seyssel, Rabellot, Rabelot, Ramoulette, Rebellot, Rebolot, Remoulette, Roussane, Roussane Blanc, Roussanne Blanc, Roussette, Rusan Belyi, Rusan Blan[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage a comme synonyme Barbin, Bergeron, Courtoisie, Fromental, Fromental Jaune, Fromenteal, Fromenteau, Greffon, Greffou, Martin Cot, Petite Rousette, Picotin Blanc, Plant de Seyssel, Rabellot, Rabelot, Ramoulette, Rebellot, Rebolot, Remoulette, Roussane, Roussane Blanc, Roussanne Blanc, Roussette, Rusan Belyi, Rusan Blan.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Ampélographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles de la roussanne ont :
 La pointe de plus en plus ouverte. Elles sont velues et recouvertes d'un duvet blanc à reflets pourpres. Les jeunes feuilles sont déjà fortement sinuées.
